--- a/診断者_身長入力画面_エビデンス.xlsx
+++ b/診断者_身長入力画面_エビデンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/各種資料/受託案件関連/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="719" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE04AF6-6778-40BA-A5B1-51BE32042959}"/>
+  <xr:revisionPtr revIDLastSave="741" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{912FF001-EBD9-4E6E-8F98-5394DE3C0052}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="728" xr2:uid="{40BD3F05-1583-483D-916D-49B5A9F9D35B}"/>
   </bookViews>
@@ -385,26 +385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9999を入力した場合</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10000を入力した場合</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2-4：身長整数部特殊文字入力チェック</t>
   </si>
   <si>
@@ -517,6 +497,26 @@
     <t>2-2：身長小数部未入力チェック</t>
     <rPh sb="6" eb="8">
       <t>ショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>999を入力した場合</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000を入力した場合</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -692,6 +692,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,12 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,22 +1133,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8631</xdr:colOff>
-      <xdr:row>485</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>11327</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="図 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947C5F6A-CB2E-A151-08D6-741C8434C4E2}"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A3E812-410D-40F7-8579-8B8FFFF1E2D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,8 +1164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="106576814"/>
-          <a:ext cx="6080819" cy="5230812"/>
+          <a:off x="269876" y="60078939"/>
+          <a:ext cx="6083514" cy="5072062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1178,21 +1178,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>462</xdr:row>
-      <xdr:rowOff>166090</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>11730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="図 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8971C0A5-C697-D16B-4559-9C588C968C5D}"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17ADCB8-E013-79E8-7948-FC96F003D0E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,8 +1208,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="101282500"/>
-          <a:ext cx="6080125" cy="5230215"/>
+          <a:off x="269875" y="55014813"/>
+          <a:ext cx="6088063" cy="5075855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,22 +1221,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8633</xdr:colOff>
-      <xdr:row>438</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>20847</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="135" name="図 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EBBDB4-4500-7A28-A5AF-B89613390C1F}"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1FB608-A1FE-DA28-810C-98EBF0A849C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,8 +1252,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="95758000"/>
-          <a:ext cx="6080820" cy="5230813"/>
+          <a:off x="269875" y="49950688"/>
+          <a:ext cx="6093035" cy="5080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1266,21 +1266,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>393</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>415</xdr:row>
-      <xdr:rowOff>179746</xdr:rowOff>
+      <xdr:colOff>11327</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="図 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8DF7BF-48E5-0933-83B2-59A3C6786CC2}"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C510A5-0090-B6B3-2075-BBEBFAAD1E0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,8 +1296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="90463688"/>
-          <a:ext cx="6096000" cy="5243871"/>
+          <a:off x="269875" y="44656375"/>
+          <a:ext cx="6083515" cy="5072063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1310,21 +1310,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>459</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>17859</xdr:colOff>
-      <xdr:row>391</xdr:row>
-      <xdr:rowOff>174626</xdr:rowOff>
+      <xdr:colOff>8631</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="図 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8043DBA4-24C8-59AE-2168-E90AA5567E5C}"/>
+        <xdr:cNvPr id="139" name="図 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947C5F6A-CB2E-A151-08D6-741C8434C4E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,8 +1340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="84939189"/>
-          <a:ext cx="6090047" cy="5238750"/>
+          <a:off x="269875" y="106576814"/>
+          <a:ext cx="6080819" cy="5230812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,21 +1354,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>436</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>368</xdr:row>
-      <xdr:rowOff>172918</xdr:rowOff>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>166090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="図 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFCC2BC-D14A-D5EB-330B-B9BE126AE864}"/>
+        <xdr:cNvPr id="136" name="図 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8971C0A5-C697-D16B-4559-9C588C968C5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,8 +1384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="79644875"/>
-          <a:ext cx="6088063" cy="5237043"/>
+          <a:off x="269875" y="101282500"/>
+          <a:ext cx="6080125" cy="5230215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,21 +1398,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>412</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>642939</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>176247</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8633</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="図 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE382C7-9A02-830B-52F4-4C7B85F8E484}"/>
+        <xdr:cNvPr id="135" name="図 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EBBDB4-4500-7A28-A5AF-B89613390C1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,8 +1428,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="66524188"/>
-          <a:ext cx="5500688" cy="2017747"/>
+          <a:off x="269876" y="95758000"/>
+          <a:ext cx="6080820" cy="5230813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,22 +1441,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>179746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18A1AAC-DC1B-B682-C6AE-4AD832702144}"/>
+        <xdr:cNvPr id="133" name="図 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8DF7BF-48E5-0933-83B2-59A3C6786CC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="23248938"/>
+          <a:off x="269875" y="90463688"/>
           <a:ext cx="6096000" cy="5243871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1486,21 +1486,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>17859</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>174626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DD5252-15AF-D7FF-50AC-3EFD54B5E20C}"/>
+        <xdr:cNvPr id="132" name="図 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8043DBA4-24C8-59AE-2168-E90AA5567E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1516,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="17494250"/>
+          <a:off x="269875" y="84939189"/>
           <a:ext cx="6090047" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1530,21 +1530,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>166090</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>172918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A732A0BA-FB55-47D8-B171-335B7D82054E}"/>
+        <xdr:cNvPr id="130" name="図 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFCC2BC-D14A-D5EB-330B-B9BE126AE864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,8 +1560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="12199938"/>
-          <a:ext cx="6080125" cy="5230215"/>
+          <a:off x="269875" y="79644875"/>
+          <a:ext cx="6088063" cy="5237043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,22 +1573,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>135983</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642939</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>176247</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E39321D-313B-034F-37E7-75A8B95AFC2D}"/>
+        <xdr:cNvPr id="86" name="図 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE382C7-9A02-830B-52F4-4C7B85F8E484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,6 +1598,182 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269876" y="66524188"/>
+          <a:ext cx="5500688" cy="2017747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>179746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18A1AAC-DC1B-B682-C6AE-4AD832702144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269876" y="23248938"/>
+          <a:ext cx="6096000" cy="5243871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DD5252-15AF-D7FF-50AC-3EFD54B5E20C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="17494250"/>
+          <a:ext cx="6090047" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>166090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A732A0BA-FB55-47D8-B171-335B7D82054E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="12199938"/>
+          <a:ext cx="6080125" cy="5230215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E39321D-313B-034F-37E7-75A8B95AFC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1847,7 +2023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2361,7 +2537,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2537,7 +2713,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2713,7 +2889,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2936,62 +3112,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>27085</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED535C51-6386-FFE2-7503-685C704B5A0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="45116751"/>
-          <a:ext cx="6099273" cy="5246687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>484188</xdr:colOff>
+      <xdr:colOff>404813</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>899203</xdr:colOff>
+      <xdr:colOff>819828</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>145144</xdr:rowOff>
+      <xdr:rowOff>49894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3006,7 +3138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3182938" y="48696563"/>
+          <a:off x="3103563" y="48140938"/>
           <a:ext cx="1629453" cy="478519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3049,15 +3181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>876529</xdr:colOff>
+      <xdr:colOff>828904</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3072,7 +3204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2484438" y="47347188"/>
+          <a:off x="2436813" y="46831250"/>
           <a:ext cx="1090841" cy="420689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3112,61 +3244,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>172918</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="図 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774D04E6-12A2-1ACB-DFE7-D1EB5343489A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="50411063"/>
-          <a:ext cx="6088063" cy="5237043"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>341313</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3230,62 +3318,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>159262</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="図 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B2E99E-CE1B-7ABA-2717-2FD8D5200E60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="55935563"/>
-          <a:ext cx="6072188" cy="5223387"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
+      <xdr:colOff>404814</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819829</xdr:colOff>
       <xdr:row>256</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>891266</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>129269</xdr:rowOff>
+      <xdr:rowOff>57831</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3300,7 +3344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3175001" y="59499500"/>
+          <a:off x="3103564" y="58507312"/>
           <a:ext cx="1629453" cy="478519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3343,15 +3387,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>992188</xdr:colOff>
+      <xdr:colOff>960438</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>836842</xdr:colOff>
       <xdr:row>250</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>868592</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>103189</xdr:rowOff>
+      <xdr:rowOff>63502</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3366,7 +3410,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476501" y="58150125"/>
+          <a:off x="2444751" y="57189688"/>
           <a:ext cx="1090841" cy="420689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3406,62 +3450,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1213844</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="図 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8E546C-E395-129C-3DD9-1D68E5677D93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269876" y="61229875"/>
-          <a:ext cx="6071593" cy="5222875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>7935</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>198437</xdr:rowOff>
+      <xdr:colOff>627062</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>174622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1158875</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>134936</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3476,7 +3476,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2166938" y="63769873"/>
+          <a:off x="2111375" y="62555435"/>
           <a:ext cx="1746250" cy="420689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3520,13 +3520,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>325437</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>341312</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>198437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3586,13 +3586,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1213843</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3630,13 +3630,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>111123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3696,13 +3696,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>182562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>706436</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3762,13 +3762,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1213843</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3806,13 +3806,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>111124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>111126</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3872,13 +3872,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>706436</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3938,7 +3938,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>488</xdr:row>
+      <xdr:row>484</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5500688" cy="2017747"/>
@@ -3956,7 +3956,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3977,13 +3977,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>915078</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>145144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4043,13 +4043,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>904876</xdr:colOff>
-      <xdr:row>355</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>293687</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4109,13 +4109,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>408</xdr:row>
+      <xdr:row>404</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>899203</xdr:colOff>
-      <xdr:row>410</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>137207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4175,13 +4175,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>889001</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>150814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>404</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4241,13 +4241,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>451</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>899203</xdr:colOff>
-      <xdr:row>457</xdr:row>
+      <xdr:row>453</xdr:row>
       <xdr:rowOff>145144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4307,13 +4307,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>449</xdr:row>
+      <xdr:row>445</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>451</xdr:row>
+      <xdr:row>447</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4373,7 +4373,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>497</xdr:row>
+      <xdr:row>493</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6071593" cy="5222875"/>
@@ -4412,13 +4412,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>502</xdr:row>
       <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>508</xdr:row>
+      <xdr:row>504</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4478,13 +4478,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>134937</xdr:colOff>
-      <xdr:row>505</xdr:row>
+      <xdr:row>501</xdr:row>
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150812</xdr:colOff>
-      <xdr:row>508</xdr:row>
+      <xdr:row>504</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4544,7 +4544,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>520</xdr:row>
+      <xdr:row>516</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6071593" cy="5222875"/>
@@ -4583,13 +4583,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>523</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>277811</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4649,13 +4649,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>579438</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>373</xdr:row>
       <xdr:rowOff>198437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4723,13 +4723,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>841375</xdr:colOff>
-      <xdr:row>425</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>429</xdr:row>
+      <xdr:row>425</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4797,13 +4797,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>373062</xdr:colOff>
-      <xdr:row>473</xdr:row>
+      <xdr:row>469</xdr:row>
       <xdr:rowOff>230186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>817562</xdr:colOff>
-      <xdr:row>475</xdr:row>
+      <xdr:row>471</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4863,13 +4863,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>472</xdr:row>
+      <xdr:row>468</xdr:row>
       <xdr:rowOff>111126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>777874</xdr:colOff>
-      <xdr:row>476</xdr:row>
+      <xdr:row>472</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4929,13 +4929,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>849313</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>525</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7501,6 +7501,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7824,41 +7828,41 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7888,34 +7892,34 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7932,7 +7936,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A075E7E1-1AA8-486C-B4E0-C504231248B3}">
-  <dimension ref="B2:H488"/>
+  <dimension ref="B2:H484"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -7946,11 +7950,11 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="G2" t="s">
         <v>55</v>
       </c>
@@ -7959,13 +7963,13 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -7978,17 +7982,17 @@
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8025,7 +8029,7 @@
     <row r="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8133,140 +8137,60 @@
     <row r="192" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="194" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B241" t="s">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B239" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B284" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B288" s="5" t="s">
-        <v>64</v>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B285" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B289" t="s">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B341" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="305" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="306" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="307" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="308" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="309" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="310" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="311" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="312" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="313" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="314" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="315" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="316" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="317" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="318" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="319" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="320" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="321" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="322" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="323" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="324" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="325" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="326" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="327" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="328" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="329" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="330" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="331" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="332" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="333" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="334" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="335" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="336" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B345" s="5" t="s">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B342" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="375" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+      <c r="E375" s="4"/>
+      <c r="F375" s="4"/>
+      <c r="G375" s="4"/>
+      <c r="H375" s="4"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B389" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B436" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B346" s="6" t="s">
-        <v>59</v>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B483" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="379" spans="3:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
-      <c r="E379" s="4"/>
-      <c r="F379" s="4"/>
-      <c r="G379" s="4"/>
-      <c r="H379" s="4"/>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B393" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B440" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B487" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B488" t="s">
-        <v>65</v>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B484" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8299,11 +8223,11 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="G2" t="s">
         <v>48</v>
       </c>
@@ -8312,11 +8236,11 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="G3" t="s">
         <v>50</v>
       </c>
@@ -8409,7 +8333,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="4"/>
@@ -8477,7 +8401,7 @@
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C164" s="8">
@@ -8492,7 +8416,7 @@
       <c r="J164" s="9"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C165" s="8">
@@ -8509,7 +8433,7 @@
       <c r="J165" s="9"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8667,7 +8591,7 @@
       </c>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B291" s="15" t="s">
+      <c r="B291" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C291" s="8">
@@ -8684,7 +8608,7 @@
       <c r="J291" s="9"/>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B292" s="15" t="s">
+      <c r="B292" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C292" s="8">
@@ -8701,7 +8625,7 @@
       <c r="J292" s="9"/>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B294" s="14" t="s">
+      <c r="B294" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8742,7 +8666,7 @@
       </c>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B298" s="15"/>
+      <c r="B298" s="11"/>
       <c r="C298" s="7" t="s">
         <v>31</v>
       </c>
@@ -8769,7 +8693,7 @@
       </c>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B299" s="15"/>
+      <c r="B299" s="11"/>
       <c r="C299" s="8"/>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
@@ -8837,7 +8761,7 @@
       </c>
     </row>
     <row r="423" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B423" s="15" t="s">
+      <c r="B423" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C423" s="8"/>
@@ -8850,7 +8774,7 @@
       <c r="J423" s="9"/>
     </row>
     <row r="424" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B424" s="15" t="s">
+      <c r="B424" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C424" s="8"/>

--- a/診断者_身長入力画面_エビデンス.xlsx
+++ b/診断者_身長入力画面_エビデンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/各種資料/受託案件関連/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="741" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{912FF001-EBD9-4E6E-8F98-5394DE3C0052}"/>
+  <xr:revisionPtr revIDLastSave="837" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33893AD-2512-411C-9D22-081BAE2F9B1D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="728" xr2:uid="{40BD3F05-1583-483D-916D-49B5A9F9D35B}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="単体テスト_エビデンス" sheetId="1" r:id="rId1"/>
     <sheet name="画面レイアウト・項目定義確認" sheetId="2" r:id="rId2"/>
     <sheet name="バリデーションチェック" sheetId="3" r:id="rId3"/>
-    <sheet name="更新処理" sheetId="4" r:id="rId4"/>
+    <sheet name="画面遷移" sheetId="5" r:id="rId4"/>
+    <sheet name="更新処理" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
   <si>
     <t>単体テスト_エビデンス</t>
     <rPh sb="0" eb="2">
@@ -182,33 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>身長入力画面</t>
-    <rPh sb="0" eb="6">
-      <t>シンチョウニュウリョクガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録完了画面</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクカンリョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>m_test_itemテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -271,54 +245,6 @@
     <t>実施後</t>
     <rPh sb="0" eb="3">
       <t>ジッシゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-1：DBの身長が未登録の場合</t>
-  </si>
-  <si>
-    <t>3-1：DBの身長が未登録の場合</t>
-    <rPh sb="7" eb="9">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミトウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-2：DBの身長に値がある場合</t>
-  </si>
-  <si>
-    <t>3-2：DBの身長に値がある場合</t>
-    <rPh sb="7" eb="9">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-3：DBの更新に失敗した場合</t>
-  </si>
-  <si>
-    <t>3-3：DBの更新に失敗した場合</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -331,9 +257,6 @@
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-1：身長整数部未入力チェック</t>
   </si>
   <si>
     <t>2-1：身長整数部未入力チェック</t>
@@ -350,9 +273,6 @@
   </si>
   <si>
     <t>2-3：身長整数部桁数チェック</t>
-  </si>
-  <si>
-    <t>2-3：身長整数部桁数チェック</t>
     <rPh sb="4" eb="6">
       <t>シンチョウ</t>
     </rPh>
@@ -383,9 +303,6 @@
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-4：身長整数部特殊文字入力チェック</t>
   </si>
   <si>
     <t>2-4：身長整数部特殊文字入力チェック</t>
@@ -427,9 +344,6 @@
   </si>
   <si>
     <t>2-5：身長小数部桁数チェック</t>
-  </si>
-  <si>
-    <t>2-5：身長小数部桁数チェック</t>
     <rPh sb="4" eb="6">
       <t>シンチョウ</t>
     </rPh>
@@ -460,9 +374,6 @@
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-6：身長小数部特殊文字入力チェック</t>
   </si>
   <si>
     <t>2-6：身長小数部特殊文字入力チェック</t>
@@ -494,13 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-2：身長小数部未入力チェック</t>
-    <rPh sb="6" eb="8">
-      <t>ショウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>999を入力した場合</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
@@ -520,12 +424,289 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>ログイン画面→メインメニュー画面→身長入力画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長入力画面：戻るボタンクリック</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長入力画面：確認ボタンクリック</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長確認画面：戻るボタンクリック</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長確認画面：確定ボタンクリック</t>
+    <rPh sb="7" eb="9">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1：ログイン画面→メインメニュー画面→身長入力画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2：身長入力画面：戻るボタンクリック</t>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3：身長入力画面：確認ボタンクリック</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4：身長確認画面：戻るボタンクリック</t>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5：身長確認画面：確定ボタンクリック</t>
+    <rPh sb="11" eb="13">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-1：身長入力画面</t>
+    <rPh sb="4" eb="10">
+      <t>シンチョウニュウリョクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長入力画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2：確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3：登録完了画面</t>
+    <rPh sb="4" eb="8">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>身長整数部未入力チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長小数部未入力チェック</t>
+    <rPh sb="2" eb="4">
+      <t>ショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長整数部特殊文字入力チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長小数部桁数チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長小数部特殊文字入力チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長整数部桁数チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>DBの身長が未登録の場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの身長に値がある場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの更新に失敗した場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1：DBの身長が未登録の場合</t>
+    <rPh sb="7" eb="9">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2：DBの身長に値がある場合</t>
+    <rPh sb="7" eb="9">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-3：DBの更新に失敗した場合</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +750,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -661,7 +850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +899,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -733,13 +940,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4150</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -777,13 +984,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>225489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -821,14 +1028,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>135124</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>135123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -865,13 +1072,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>563562</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>198438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -909,14 +1116,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>404814</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180663</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -953,13 +1160,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>100620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -997,13 +1204,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>553156</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1041,14 +1248,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>531813</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>186790</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>186789</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1085,14 +1292,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>31994</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15876</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1134,13 +1341,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>11327</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1178,13 +1385,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>11730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1222,13 +1429,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>20847</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1266,13 +1473,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>11327</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1310,13 +1517,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>459</xdr:row>
+      <xdr:row>465</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>8631</xdr:colOff>
-      <xdr:row>481</xdr:row>
+      <xdr:row>487</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1354,13 +1561,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>436</xdr:row>
+      <xdr:row>442</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>458</xdr:row>
+      <xdr:row>464</xdr:row>
       <xdr:rowOff>166090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1398,13 +1605,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>412</xdr:row>
+      <xdr:row>418</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>8633</xdr:colOff>
-      <xdr:row>434</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1442,13 +1649,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>417</xdr:row>
       <xdr:rowOff>179746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1486,13 +1693,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>365</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>17859</xdr:colOff>
-      <xdr:row>387</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>174626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1530,13 +1737,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>172918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1574,13 +1781,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>642939</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>176247</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1618,13 +1825,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>179746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1662,13 +1869,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>17859</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1706,13 +1913,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>166090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1750,13 +1957,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>135983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1794,13 +2001,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1063624</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>211683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1868,13 +2075,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1004659</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>150810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>881063</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>111124</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1934,13 +2141,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>489860</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>100918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2000,13 +2207,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>25278</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>150814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2044,13 +2251,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>777875</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2110,13 +2317,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>420688</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2176,13 +2383,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1071562</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>219621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>865187</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2250,13 +2457,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>869722</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2316,13 +2523,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>489860</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>100918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2382,13 +2589,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>762001</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>103188</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2448,13 +2655,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>420688</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2514,13 +2721,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>186574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2558,13 +2765,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>915078</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>145144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2624,13 +2831,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>892404</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2690,13 +2897,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>269874</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>172919</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2734,13 +2941,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>899203</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>137207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2800,13 +3007,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>150813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>876529</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>111127</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2866,13 +3073,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>179746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2910,13 +3117,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>738187</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1166813</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2976,13 +3183,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>396874</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3042,13 +3249,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>515938</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3116,13 +3323,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>819828</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>49894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3182,13 +3389,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>828904</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3248,13 +3455,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>341313</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3322,13 +3529,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>404814</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>819829</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>57831</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3388,13 +3595,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>960438</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>103188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>836842</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>63502</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3454,13 +3661,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>627062</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>174622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1158875</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>134936</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3520,13 +3727,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>325437</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>341312</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>198437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3586,13 +3793,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1213843</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3630,13 +3837,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>111123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3696,13 +3903,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>182562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>706436</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3762,13 +3969,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1213843</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3806,13 +4013,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>111124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>111126</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3872,13 +4079,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>706436</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3938,7 +4145,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>484</xdr:row>
+      <xdr:row>490</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5500688" cy="2017747"/>
@@ -3977,13 +4184,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>915078</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>365</xdr:row>
       <xdr:rowOff>145144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4043,13 +4250,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>904876</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>293687</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4109,13 +4316,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>404</xdr:row>
+      <xdr:row>410</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>899203</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>412</xdr:row>
       <xdr:rowOff>137207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4175,13 +4382,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>889001</xdr:colOff>
-      <xdr:row>398</xdr:row>
+      <xdr:row>404</xdr:row>
       <xdr:rowOff>150814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4241,13 +4448,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>451</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>899203</xdr:colOff>
-      <xdr:row>453</xdr:row>
+      <xdr:row>459</xdr:row>
       <xdr:rowOff>145144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4307,13 +4514,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>445</xdr:row>
+      <xdr:row>451</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>447</xdr:row>
+      <xdr:row>453</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4373,7 +4580,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>499</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6071593" cy="5222875"/>
@@ -4412,13 +4619,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>508</xdr:row>
       <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>510</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4478,13 +4685,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>134937</xdr:colOff>
-      <xdr:row>501</xdr:row>
+      <xdr:row>507</xdr:row>
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150812</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>510</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4544,7 +4751,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>516</xdr:row>
+      <xdr:row>522</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6071593" cy="5222875"/>
@@ -4583,13 +4790,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>523</xdr:row>
+      <xdr:row>529</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>277811</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>533</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4649,13 +4856,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>579438</xdr:colOff>
-      <xdr:row>373</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>198437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>383</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4723,13 +4930,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>841375</xdr:colOff>
-      <xdr:row>421</xdr:row>
+      <xdr:row>427</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>425</xdr:row>
+      <xdr:row>431</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4797,13 +5004,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>373062</xdr:colOff>
-      <xdr:row>469</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>230186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>817562</xdr:colOff>
-      <xdr:row>471</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4863,13 +5070,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>468</xdr:row>
+      <xdr:row>474</xdr:row>
       <xdr:rowOff>111126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>777874</xdr:colOff>
-      <xdr:row>472</xdr:row>
+      <xdr:row>478</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4929,13 +5136,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>849313</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>531</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>533</xdr:row>
       <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5000,21 +5207,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>389</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>912812</xdr:colOff>
-      <xdr:row>418</xdr:row>
-      <xdr:rowOff>138865</xdr:rowOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>226918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0072E7F3-84A7-DBE6-2EA1-92175E24428E}"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052B712F-D2C9-403D-9607-5D4D5293481E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5030,8 +5237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="91368564"/>
-          <a:ext cx="7921625" cy="6814301"/>
+          <a:off x="269875" y="48109188"/>
+          <a:ext cx="5810250" cy="5060855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5044,21 +5251,109 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>880565</xdr:colOff>
-      <xdr:row>388</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>226917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3C671A-B115-35D9-9778-2FB4F57348BC}"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F376E4-ED0B-4A18-9E7C-C4624B4A1892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="37750750"/>
+          <a:ext cx="5810250" cy="5060855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>226919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FC39B1-497C-5B83-033B-EF753E9F5AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="32456439"/>
+          <a:ext cx="5810250" cy="5060855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>17471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B11491A-F7EE-4280-90EA-B1B0682BCD91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5074,8 +5369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="84462938"/>
-          <a:ext cx="7889378" cy="6786562"/>
+          <a:off x="269875" y="27162125"/>
+          <a:ext cx="5834063" cy="5081596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5088,21 +5383,109 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>912812</xdr:colOff>
-      <xdr:row>358</xdr:row>
-      <xdr:rowOff>138864</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>17471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAB48E6-F65A-B704-DDFC-0B668014C98B}"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B621398-85A6-47FE-913D-42C4959F041F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="17264063"/>
+          <a:ext cx="5834063" cy="5081596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>17471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E678F54-795F-011E-E8CA-9DCCD134B88C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="11969750"/>
+          <a:ext cx="5834063" cy="5081596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69780BC-469F-46F2-8CAE-A72FB2B53812}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5118,8 +5501,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="77557313"/>
-          <a:ext cx="7921625" cy="6814301"/>
+          <a:off x="273052" y="2286001"/>
+          <a:ext cx="5800723" cy="4822570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5128,113 +5511,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>889793</xdr:colOff>
-      <xdr:row>328</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5425F475-A9FE-4479-E5AF-A6998DCAE65C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="70651689"/>
-          <a:ext cx="7898606" cy="6794500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>852884</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F7694C-A532-F09E-69D3-42778F4B0E05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="5278439"/>
-          <a:ext cx="7861697" cy="6762750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690564</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>412751</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7BCA35-5964-46F1-993C-E7FF7823F502}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F3FCBB-DF66-4A38-B996-295CD0D89556}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5242,8 +5537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3151188" y="6945313"/>
-          <a:ext cx="2238375" cy="619124"/>
+          <a:off x="1897064" y="5834062"/>
+          <a:ext cx="2147887" cy="441325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5282,17 +5577,924 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>21972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C914A93-219D-4196-AAF3-D8EEC75C63F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273050" y="7086600"/>
+          <a:ext cx="5800724" cy="4822572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>246062</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58DC787-534A-471E-ADC4-DD7AADEE0F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1452562" y="8834437"/>
+          <a:ext cx="1508126" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198438</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>492126</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9954AB-A013-440E-B060-D1E02273BF0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1404938" y="20724813"/>
+          <a:ext cx="1508126" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>21973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D26C7AD-6D7B-4322-9A43-C636695004FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273050" y="21717001"/>
+          <a:ext cx="5800724" cy="4822572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1008064</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152F460A-2163-421A-A82D-FB6A31E0B225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3135313" y="30630812"/>
+          <a:ext cx="1508126" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182563</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>230186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850B869D-C66A-4D0B-B3AA-40C8D58203DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389063" y="41203561"/>
+          <a:ext cx="1508126" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>706438</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>230185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1000127</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>222248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7E628B-C3F2-40DA-9B69-97AD033EE20F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3127376" y="51561998"/>
+          <a:ext cx="1508126" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>135356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37284EEE-E90F-4429-A9D6-C22538DB5A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273050" y="51206400"/>
+          <a:ext cx="5800725" cy="4935955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39688</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>17471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6AC7FF-C171-4B82-B1C4-60E7F15318F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="42814875"/>
+          <a:ext cx="5834063" cy="5081596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E27D002-7085-412E-828B-499A5592516B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341438" y="56554688"/>
+          <a:ext cx="1508126" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>21972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC17D974-E64D-48CB-885D-4A5F2C63B5B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="58237438"/>
+          <a:ext cx="5810249" cy="4855909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>912812</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>138864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0072E7F3-84A7-DBE6-2EA1-92175E24428E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="91368564"/>
+          <a:ext cx="7921625" cy="6814301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>880565</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3C671A-B115-35D9-9778-2FB4F57348BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="84462938"/>
+          <a:ext cx="7889378" cy="6786562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>912812</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>138863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAB48E6-F65A-B704-DDFC-0B668014C98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="77557313"/>
+          <a:ext cx="7921625" cy="6814301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>889793</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5425F475-A9FE-4479-E5AF-A6998DCAE65C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="70651689"/>
+          <a:ext cx="7898606" cy="6794500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>852884</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>87314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F7694C-A532-F09E-69D3-42778F4B0E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="5278439"/>
+          <a:ext cx="7861697" cy="6762750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7BCA35-5964-46F1-993C-E7FF7823F502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3151188" y="6945313"/>
+          <a:ext cx="2238375" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>79376</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1460501</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5360,14 +6562,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>849312</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>84241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5404,13 +6606,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>754062</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5470,13 +6672,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1492250</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>182564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5544,13 +6746,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>388938</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63502</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5610,14 +6812,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>862111</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5654,13 +6856,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>658813</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>55563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>738187</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>31752</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5720,13 +6922,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>182562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>182562</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5794,13 +6996,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>87314</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5860,14 +7062,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>104723</xdr:rowOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>104724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5904,13 +7106,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>722314</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>635001</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5970,13 +7172,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>174626</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6036,14 +7238,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>908247</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>134937</xdr:rowOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6080,14 +7282,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>862112</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6124,13 +7326,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6190,13 +7392,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>79376</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1460501</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>150813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6276,14 +7478,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>899022</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6320,13 +7522,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>785812</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>539749</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>39689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6386,13 +7588,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>198439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6460,13 +7662,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>420688</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95252</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6526,13 +7728,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>269874</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>230186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>944561</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>166174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6570,13 +7772,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>706437</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>87314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>785811</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>63503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6636,13 +7838,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>301624</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>214313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>230186</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>158751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6710,13 +7912,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>460374</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>39689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>134938</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>214314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6776,14 +7978,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>873124</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>104724</xdr:rowOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>104723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6820,13 +8022,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6886,13 +8088,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>785812</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>539749</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>39689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6952,13 +8154,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>198439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7026,13 +8228,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>420688</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>352</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95252</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7092,13 +8294,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>658812</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>374</xdr:row>
       <xdr:rowOff>55564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>738186</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>31753</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7158,13 +8360,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>182561</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7232,13 +8434,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>412749</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>382</xdr:row>
       <xdr:rowOff>7939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>87313</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>384</xdr:row>
       <xdr:rowOff>182564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7298,13 +8500,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>182563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1373188</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>206376</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7372,13 +8574,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>706437</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>403</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7438,13 +8640,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>309561</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1649504</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>200269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7804,7 +9006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97682977-F054-4F76-9C61-870D50FCDD86}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -7859,17 +9061,28 @@
         <v>3</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7878,7 +9091,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E8BB21-30B8-4D94-B1D3-27B9DE870848}">
-  <dimension ref="B2:E59"/>
+  <dimension ref="B2:E62"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -7908,23 +9121,56 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
     </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="B5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="10" t="s">
-        <v>27</v>
-      </c>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="10" t="s">
-        <v>28</v>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
   </mergeCells>
@@ -7936,7 +9182,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A075E7E1-1AA8-486C-B4E0-C504231248B3}">
-  <dimension ref="B2:H484"/>
+  <dimension ref="B2:H490"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -7946,7 +9192,7 @@
     <col min="2" max="8" width="15.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7955,11 +9201,8 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -7968,235 +9211,168 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="G3" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G4" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B200" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B245" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G6" t="s">
-        <v>64</v>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B290" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G7" t="s">
-        <v>68</v>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B291" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="5" t="s">
-        <v>70</v>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B347" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" s="5" t="s">
-        <v>58</v>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B348" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="6" t="s">
-        <v>59</v>
-      </c>
+    <row r="381" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+      <c r="E381" s="4"/>
+      <c r="F381" s="4"/>
+      <c r="G381" s="4"/>
+      <c r="H381" s="4"/>
     </row>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B395" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B147" t="s">
-        <v>60</v>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B442" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B194" t="s">
-        <v>72</v>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B489" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B239" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B284" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B285" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B341" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B342" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="375" spans="3:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4"/>
-      <c r="F375" s="4"/>
-      <c r="G375" s="4"/>
-      <c r="H375" s="4"/>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B389" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B436" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B483" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B484" t="s">
-        <v>63</v>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B490" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8205,8 +9381,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCADB66-303E-4B51-BBFE-A6AA599E2580}">
-  <dimension ref="B2:J424"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106989D8-EAAA-4722-BA5F-79B5AC3E717C}">
+  <dimension ref="B2:H209"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -8228,568 +9404,651 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
+      <c r="C3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
+      <c r="B4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="2:8" ht="162" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="8">
-        <v>10001</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="8">
-        <v>28</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+        <v>71</v>
+      </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C161" s="6" t="s">
-        <v>29</v>
-      </c>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C162" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J162" s="7" t="s">
-        <v>44</v>
-      </c>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="10"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C163" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J163" s="7" t="s">
-        <v>45</v>
-      </c>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="21"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B164" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B209" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCADB66-303E-4B51-BBFE-A6AA599E2580}">
+  <dimension ref="B2:J427"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="7" width="15.9140625" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="162" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="8">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B164" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C164" s="8">
-        <v>10001</v>
-      </c>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
+      <c r="C164" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B165" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C165" s="8">
-        <v>10001</v>
-      </c>
-      <c r="D165" s="8">
-        <v>195.3</v>
-      </c>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
+      <c r="C165" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J165" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C166" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B167" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="B167" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C167" s="8">
+        <v>10001</v>
+      </c>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
     </row>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C288" s="6" t="s">
-        <v>29</v>
-      </c>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B168" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="8">
+        <v>10001</v>
+      </c>
+      <c r="D168" s="8">
+        <v>195.3</v>
+      </c>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
     </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C289" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D289" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E289" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F289" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G289" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H289" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I289" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J289" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C290" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D290" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E290" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F290" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G290" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H290" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I290" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J290" s="7" t="s">
-        <v>45</v>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B170" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B291" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C291" s="8">
-        <v>10001</v>
-      </c>
-      <c r="D291" s="8">
-        <v>195.3</v>
-      </c>
-      <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
-      <c r="G291" s="8"/>
-      <c r="H291" s="8"/>
-      <c r="I291" s="9"/>
-      <c r="J291" s="9"/>
+      <c r="C291" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B292" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C292" s="8">
-        <v>10001</v>
-      </c>
-      <c r="D292" s="8">
-        <v>69.8</v>
-      </c>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
-      <c r="G292" s="8"/>
-      <c r="H292" s="8"/>
-      <c r="I292" s="9"/>
-      <c r="J292" s="9"/>
+      <c r="C292" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G292" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H292" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I292" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J292" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C293" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G293" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H293" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I293" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J293" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B294" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="B294" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C294" s="8">
+        <v>10001</v>
+      </c>
+      <c r="D294" s="8">
+        <v>195.3</v>
+      </c>
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
+      <c r="G294" s="8"/>
+      <c r="H294" s="8"/>
+      <c r="I294" s="9"/>
+      <c r="J294" s="9"/>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B295" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C296" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B295" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C295" s="8">
+        <v>10001</v>
+      </c>
+      <c r="D295" s="8">
+        <v>69.8</v>
+      </c>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
+      <c r="G295" s="8"/>
+      <c r="H295" s="8"/>
+      <c r="I295" s="9"/>
+      <c r="J295" s="9"/>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C297" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D297" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E297" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F297" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G297" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H297" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I297" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J297" s="7" t="s">
-        <v>44</v>
+      <c r="B297" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B298" s="11"/>
-      <c r="C298" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D298" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E298" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F298" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G298" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H298" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I298" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J298" s="7" t="s">
+      <c r="B298" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B299" s="11"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-      <c r="G299" s="8"/>
-      <c r="H299" s="8"/>
-      <c r="I299" s="9"/>
-      <c r="J299" s="9"/>
+      <c r="C299" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="420" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C420" s="6" t="s">
+    <row r="300" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C300" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D300" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="E300" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G300" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H300" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I300" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J300" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="421" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C421" s="7" t="s">
+    <row r="301" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B301" s="11"/>
+      <c r="C301" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D301" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D421" s="7" t="s">
+      <c r="E301" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E421" s="7" t="s">
+      <c r="F301" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F421" s="7" t="s">
+      <c r="G301" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G421" s="7" t="s">
+      <c r="H301" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H421" s="7" t="s">
+      <c r="I301" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I421" s="7" t="s">
+      <c r="J301" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J421" s="7" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="422" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C422" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D422" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E422" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F422" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G422" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H422" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I422" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J422" s="7" t="s">
-        <v>45</v>
-      </c>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B302" s="11"/>
+      <c r="C302" s="8"/>
+      <c r="D302" s="8"/>
+      <c r="E302" s="8"/>
+      <c r="F302" s="8"/>
+      <c r="G302" s="8"/>
+      <c r="H302" s="8"/>
+      <c r="I302" s="9"/>
+      <c r="J302" s="9"/>
     </row>
     <row r="423" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B423" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C423" s="8"/>
-      <c r="D423" s="8"/>
-      <c r="E423" s="8"/>
-      <c r="F423" s="8"/>
-      <c r="G423" s="8"/>
-      <c r="H423" s="8"/>
-      <c r="I423" s="9"/>
-      <c r="J423" s="9"/>
+      <c r="C423" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="424" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B424" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C424" s="8"/>
-      <c r="D424" s="8"/>
-      <c r="E424" s="8"/>
-      <c r="F424" s="8"/>
-      <c r="G424" s="8"/>
-      <c r="H424" s="8"/>
-      <c r="I424" s="9"/>
-      <c r="J424" s="9"/>
+      <c r="C424" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D424" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E424" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F424" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G424" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H424" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I424" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J424" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="425" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C425" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D425" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E425" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F425" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G425" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H425" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I425" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J425" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="426" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B426" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C426" s="8"/>
+      <c r="D426" s="8"/>
+      <c r="E426" s="8"/>
+      <c r="F426" s="8"/>
+      <c r="G426" s="8"/>
+      <c r="H426" s="8"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="9"/>
+    </row>
+    <row r="427" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B427" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C427" s="8"/>
+      <c r="D427" s="8"/>
+      <c r="E427" s="8"/>
+      <c r="F427" s="8"/>
+      <c r="G427" s="8"/>
+      <c r="H427" s="8"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
